--- a/analysis/table.xlsx
+++ b/analysis/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karimkhalil/Desktop/Data301/Project/project-group-group56/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56BE215-3F97-FD4A-B647-084793F703B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF1C108-2963-9042-80C6-7F4D4ACF7963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/analysis/table.xlsx
+++ b/analysis/table.xlsx
@@ -477,158 +477,158 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.9202252359061</v>
+        <v>10.92839512126879</v>
       </c>
       <c r="B2" t="n">
-        <v>3.55847635724753</v>
+        <v>3.566717868808561</v>
       </c>
       <c r="C2" t="n">
-        <v>1.755313200506014</v>
+        <v>1.752421387286799</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8610595753452897</v>
+        <v>0.8608058608058609</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3386930529787673</v>
+        <v>0.3398453398453398</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1071943929086786</v>
+        <v>0.1068376068376068</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6538857967429396</v>
+        <v>0.653032153032153</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0676149247577819</v>
+        <v>0.06735856735856736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>54.99962580763415</v>
+        <v>55.0324840585517</v>
       </c>
       <c r="B3" t="n">
-        <v>3.433071899298679</v>
+        <v>3.402445801052433</v>
       </c>
       <c r="C3" t="n">
-        <v>1.679701663161275</v>
+        <v>1.684274011099395</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3532423208191126</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09385665529010238</v>
+        <v>0.09427609427609428</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6023890784982935</v>
+        <v>0.6043771043771043</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0409556313993174</v>
+        <v>0.04040404040404041</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97.83002161222281</v>
+        <v>97.50811527192276</v>
       </c>
       <c r="B4" t="n">
-        <v>3.655366798160129</v>
+        <v>3.678327909934766</v>
       </c>
       <c r="C4" t="n">
-        <v>1.839285243297239</v>
+        <v>1.879171749916555</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3192771084337349</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1325301204819277</v>
+        <v>0.1352941176470588</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6506024096385542</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2469879518072289</v>
+        <v>0.2411764705882353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>136.7287768368529</v>
+        <v>136.7197743035566</v>
       </c>
       <c r="B5" t="n">
-        <v>3.663111583297086</v>
+        <v>3.738725360347666</v>
       </c>
       <c r="C5" t="n">
-        <v>1.573630094681298</v>
+        <v>1.557026270623264</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3125</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G5" t="n">
-        <v>0.725</v>
+        <v>0.7283950617283951</v>
       </c>
       <c r="H5" t="n">
-        <v>0.45</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>175.9029532811359</v>
+        <v>176.1737977930194</v>
       </c>
       <c r="B6" t="n">
-        <v>3.362237312625981</v>
+        <v>3.311379823916363</v>
       </c>
       <c r="C6" t="n">
-        <v>1.283918794583414</v>
+        <v>1.319649422272389</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3478260869565217</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="F6" t="n">
-        <v>0.108695652173913</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="H6" t="n">
-        <v>0.391304347826087</v>
+        <v>0.3829787234042553</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>214.5837639658081</v>
+        <v>214.2989907975237</v>
       </c>
       <c r="B7" t="n">
-        <v>5.191371943285731</v>
+        <v>5.009217446171823</v>
       </c>
       <c r="C7" t="n">
-        <v>1.636373285638113</v>
+        <v>1.621132959721528</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
     <row r="8">
@@ -685,28 +685,28 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>335.3517025679237</v>
+        <v>335.1012351034231</v>
       </c>
       <c r="B10" t="n">
-        <v>6.859311219816715</v>
+        <v>6.248041065402735</v>
       </c>
       <c r="C10" t="n">
-        <v>1.810746753908426</v>
+        <v>1.894114446573834</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="11">
